--- a/OUT/Statistics.xlsx
+++ b/OUT/Statistics.xlsx
@@ -64,10 +64,10 @@
     <t>lat_target_end</t>
   </si>
   <si>
-    <t>id_lte_origin</t>
-  </si>
-  <si>
-    <t>id_lte_target</t>
+    <t>id_edge_origin</t>
+  </si>
+  <si>
+    <t>id_edge_target</t>
   </si>
   <si>
     <t>delta_dist_init</t>
